--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3175.78224544554</v>
+        <v>3469.336398329506</v>
       </c>
       <c r="AB2" t="n">
-        <v>4345.245373843347</v>
+        <v>4746.899116514423</v>
       </c>
       <c r="AC2" t="n">
-        <v>3930.54125395376</v>
+        <v>4293.861727148861</v>
       </c>
       <c r="AD2" t="n">
-        <v>3175782.24544554</v>
+        <v>3469336.398329506</v>
       </c>
       <c r="AE2" t="n">
-        <v>4345245.373843347</v>
+        <v>4746899.116514423</v>
       </c>
       <c r="AF2" t="n">
         <v>2.646208949207477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.30833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3930541.25395376</v>
+        <v>4293861.727148861</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1155.280230105679</v>
+        <v>1321.616760864039</v>
       </c>
       <c r="AB3" t="n">
-        <v>1580.705378197245</v>
+        <v>1808.294357830664</v>
       </c>
       <c r="AC3" t="n">
-        <v>1429.845075436032</v>
+        <v>1635.713282276375</v>
       </c>
       <c r="AD3" t="n">
-        <v>1155280.230105679</v>
+        <v>1321616.760864039</v>
       </c>
       <c r="AE3" t="n">
-        <v>1580705.378197245</v>
+        <v>1808294.357830664</v>
       </c>
       <c r="AF3" t="n">
         <v>4.953778489825983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.68333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1429845.075436032</v>
+        <v>1635713.282276375</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>914.1562644376461</v>
+        <v>1051.094076996038</v>
       </c>
       <c r="AB4" t="n">
-        <v>1250.788930731646</v>
+        <v>1438.153287143956</v>
       </c>
       <c r="AC4" t="n">
-        <v>1131.415390675907</v>
+        <v>1300.897955879752</v>
       </c>
       <c r="AD4" t="n">
-        <v>914156.2644376461</v>
+        <v>1051094.076996038</v>
       </c>
       <c r="AE4" t="n">
-        <v>1250788.930731646</v>
+        <v>1438153.287143956</v>
       </c>
       <c r="AF4" t="n">
         <v>5.791524924422059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>1131415.390675907</v>
+        <v>1300897.955879752</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>814.4366921771314</v>
+        <v>941.5859834651746</v>
       </c>
       <c r="AB5" t="n">
-        <v>1114.34821264777</v>
+        <v>1288.319482418908</v>
       </c>
       <c r="AC5" t="n">
-        <v>1007.996383230205</v>
+        <v>1165.364079184597</v>
       </c>
       <c r="AD5" t="n">
-        <v>814436.6921771313</v>
+        <v>941585.9834651747</v>
       </c>
       <c r="AE5" t="n">
-        <v>1114348.21264777</v>
+        <v>1288319.482418908</v>
       </c>
       <c r="AF5" t="n">
         <v>6.22998573821245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.19166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1007996.383230205</v>
+        <v>1165364.079184597</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>742.8184897301852</v>
+        <v>870.0009354071522</v>
       </c>
       <c r="AB6" t="n">
-        <v>1016.357028487757</v>
+        <v>1190.37366155649</v>
       </c>
       <c r="AC6" t="n">
-        <v>919.3573401549336</v>
+        <v>1076.766069997464</v>
       </c>
       <c r="AD6" t="n">
-        <v>742818.4897301852</v>
+        <v>870000.9354071522</v>
       </c>
       <c r="AE6" t="n">
-        <v>1016357.028487757</v>
+        <v>1190373.66155649</v>
       </c>
       <c r="AF6" t="n">
         <v>6.54263391299426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.9875</v>
       </c>
       <c r="AH6" t="n">
-        <v>919357.3401549336</v>
+        <v>1076766.069997465</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>723.679100823987</v>
+        <v>841.1413560681673</v>
       </c>
       <c r="AB7" t="n">
-        <v>990.1696722160513</v>
+        <v>1150.886711910108</v>
       </c>
       <c r="AC7" t="n">
-        <v>895.6692684116136</v>
+        <v>1041.047699405051</v>
       </c>
       <c r="AD7" t="n">
-        <v>723679.100823987</v>
+        <v>841141.3560681673</v>
       </c>
       <c r="AE7" t="n">
-        <v>990169.6722160513</v>
+        <v>1150886.711910108</v>
       </c>
       <c r="AF7" t="n">
         <v>6.654885908277367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>895669.2684116137</v>
+        <v>1041047.699405051</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>696.0704765206326</v>
+        <v>803.711056105541</v>
       </c>
       <c r="AB8" t="n">
-        <v>952.3943344376599</v>
+        <v>1099.672924192952</v>
       </c>
       <c r="AC8" t="n">
-        <v>861.4991558527727</v>
+        <v>994.7216837086179</v>
       </c>
       <c r="AD8" t="n">
-        <v>696070.4765206326</v>
+        <v>803711.0561055411</v>
       </c>
       <c r="AE8" t="n">
-        <v>952394.3344376599</v>
+        <v>1099672.924192952</v>
       </c>
       <c r="AF8" t="n">
         <v>6.81573021024343e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.02916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>861499.1558527726</v>
+        <v>994721.6837086179</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>664.3990049476298</v>
+        <v>781.8270947730292</v>
       </c>
       <c r="AB9" t="n">
-        <v>909.0600297847642</v>
+        <v>1069.730322845573</v>
       </c>
       <c r="AC9" t="n">
-        <v>822.3006164158706</v>
+        <v>967.6367622091284</v>
       </c>
       <c r="AD9" t="n">
-        <v>664399.0049476298</v>
+        <v>781827.0947730292</v>
       </c>
       <c r="AE9" t="n">
-        <v>909060.0297847642</v>
+        <v>1069730.322845573</v>
       </c>
       <c r="AF9" t="n">
         <v>6.933255789197555e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.6375</v>
       </c>
       <c r="AH9" t="n">
-        <v>822300.6164158706</v>
+        <v>967636.7622091284</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>640.8423509579172</v>
+        <v>748.4487651240448</v>
       </c>
       <c r="AB10" t="n">
-        <v>876.8287765498121</v>
+        <v>1024.060619671856</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.1454687528144</v>
+        <v>926.3257114084798</v>
       </c>
       <c r="AD10" t="n">
-        <v>640842.3509579173</v>
+        <v>748448.7651240448</v>
       </c>
       <c r="AE10" t="n">
-        <v>876828.7765498122</v>
+        <v>1024060.619671856</v>
       </c>
       <c r="AF10" t="n">
         <v>7.05417152908305e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>793145.4687528143</v>
+        <v>926325.7114084798</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>632.2284298460341</v>
+        <v>739.8348440121615</v>
       </c>
       <c r="AB11" t="n">
-        <v>865.0428296651545</v>
+        <v>1012.274672787198</v>
       </c>
       <c r="AC11" t="n">
-        <v>782.4843560971481</v>
+        <v>915.6645987528134</v>
       </c>
       <c r="AD11" t="n">
-        <v>632228.4298460342</v>
+        <v>739834.8440121615</v>
       </c>
       <c r="AE11" t="n">
-        <v>865042.8296651545</v>
+        <v>1012274.672787198</v>
       </c>
       <c r="AF11" t="n">
         <v>7.074512494671265e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.18333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>782484.356097148</v>
+        <v>915664.5987528134</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>626.8721488692341</v>
+        <v>734.4785630353617</v>
       </c>
       <c r="AB12" t="n">
-        <v>857.7141297302575</v>
+        <v>1004.945972852301</v>
       </c>
       <c r="AC12" t="n">
-        <v>775.8550969981427</v>
+        <v>909.0353396538081</v>
       </c>
       <c r="AD12" t="n">
-        <v>626872.1488692341</v>
+        <v>734478.5630353617</v>
       </c>
       <c r="AE12" t="n">
-        <v>857714.1297302574</v>
+        <v>1004945.972852301</v>
       </c>
       <c r="AF12" t="n">
         <v>7.096360198451197e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.11666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>775855.0969981427</v>
+        <v>909035.3396538082</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>628.2660729848487</v>
+        <v>735.8724871509761</v>
       </c>
       <c r="AB13" t="n">
-        <v>859.6213582008332</v>
+        <v>1006.853201322877</v>
       </c>
       <c r="AC13" t="n">
-        <v>777.5803022602985</v>
+        <v>910.7605449159639</v>
       </c>
       <c r="AD13" t="n">
-        <v>628266.0729848488</v>
+        <v>735872.4871509761</v>
       </c>
       <c r="AE13" t="n">
-        <v>859621.3582008332</v>
+        <v>1006853.201322877</v>
       </c>
       <c r="AF13" t="n">
         <v>7.095983513903268e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.11666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>777580.3022602985</v>
+        <v>910760.5449159639</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1991.203650260316</v>
+        <v>2223.502664444133</v>
       </c>
       <c r="AB2" t="n">
-        <v>2724.452679991375</v>
+        <v>3042.294439507064</v>
       </c>
       <c r="AC2" t="n">
-        <v>2464.43474000635</v>
+        <v>2751.942128087458</v>
       </c>
       <c r="AD2" t="n">
-        <v>1991203.650260316</v>
+        <v>2223502.664444133</v>
       </c>
       <c r="AE2" t="n">
-        <v>2724452.679991375</v>
+        <v>3042294.439507063</v>
       </c>
       <c r="AF2" t="n">
         <v>3.685554773658266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.59583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2464434.74000635</v>
+        <v>2751942.128087458</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>943.7798026494499</v>
+        <v>1079.27433636204</v>
       </c>
       <c r="AB3" t="n">
-        <v>1291.321162611305</v>
+        <v>1476.710761233821</v>
       </c>
       <c r="AC3" t="n">
-        <v>1168.079283232316</v>
+        <v>1335.775558758235</v>
       </c>
       <c r="AD3" t="n">
-        <v>943779.8026494499</v>
+        <v>1079274.33636204</v>
       </c>
       <c r="AE3" t="n">
-        <v>1291321.162611305</v>
+        <v>1476710.761233821</v>
       </c>
       <c r="AF3" t="n">
         <v>5.917001155293901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>1168079.283232316</v>
+        <v>1335775.558758235</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.839979470271</v>
+        <v>893.6871184216766</v>
       </c>
       <c r="AB4" t="n">
-        <v>1050.592534620363</v>
+        <v>1222.782142117607</v>
       </c>
       <c r="AC4" t="n">
-        <v>950.3254576320777</v>
+        <v>1106.081530659417</v>
       </c>
       <c r="AD4" t="n">
-        <v>767839.979470271</v>
+        <v>893687.1184216766</v>
       </c>
       <c r="AE4" t="n">
-        <v>1050592.534620363</v>
+        <v>1222782.142117607</v>
       </c>
       <c r="AF4" t="n">
         <v>6.717832392737203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>950325.4576320777</v>
+        <v>1106081.530659417</v>
       </c>
     </row>
     <row r="5">
@@ -5458,19 +5458,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>685.9036876621698</v>
+        <v>811.6824957760138</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.483685394442</v>
+        <v>1110.579799625191</v>
       </c>
       <c r="AC5" t="n">
-        <v>848.9161196305209</v>
+        <v>1004.5876222575</v>
       </c>
       <c r="AD5" t="n">
-        <v>685903.6876621698</v>
+        <v>811682.4957760137</v>
       </c>
       <c r="AE5" t="n">
-        <v>938483.6853944419</v>
+        <v>1110579.799625191</v>
       </c>
       <c r="AF5" t="n">
         <v>7.155960856660122e-06</v>
@@ -5479,7 +5479,7 @@
         <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>848916.1196305209</v>
+        <v>1004587.6222575</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.8603734339052</v>
+        <v>774.9254780087172</v>
       </c>
       <c r="AB6" t="n">
-        <v>901.4818298005089</v>
+        <v>1060.287226310799</v>
       </c>
       <c r="AC6" t="n">
-        <v>815.4456692020422</v>
+        <v>959.0949015541639</v>
       </c>
       <c r="AD6" t="n">
-        <v>658860.3734339052</v>
+        <v>774925.4780087172</v>
       </c>
       <c r="AE6" t="n">
-        <v>901481.8298005089</v>
+        <v>1060287.226310799</v>
       </c>
       <c r="AF6" t="n">
         <v>7.33525143220713e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.4125</v>
       </c>
       <c r="AH6" t="n">
-        <v>815445.6692020422</v>
+        <v>959094.9015541639</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>615.1246746555057</v>
+        <v>731.2570990380221</v>
       </c>
       <c r="AB7" t="n">
-        <v>841.6407172490489</v>
+        <v>1000.53822369018</v>
       </c>
       <c r="AC7" t="n">
-        <v>761.3157084449646</v>
+        <v>905.0482598854054</v>
       </c>
       <c r="AD7" t="n">
-        <v>615124.6746555057</v>
+        <v>731257.0990380221</v>
       </c>
       <c r="AE7" t="n">
-        <v>841640.7172490489</v>
+        <v>1000538.22369018</v>
       </c>
       <c r="AF7" t="n">
         <v>7.565650125841101e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>761315.7084449646</v>
+        <v>905048.2598854054</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>592.6179292354752</v>
+        <v>699.03665007896</v>
       </c>
       <c r="AB8" t="n">
-        <v>810.8459952378327</v>
+        <v>956.4527839585053</v>
       </c>
       <c r="AC8" t="n">
-        <v>733.459991481835</v>
+        <v>865.1702726474181</v>
       </c>
       <c r="AD8" t="n">
-        <v>592617.9292354753</v>
+        <v>699036.65007896</v>
       </c>
       <c r="AE8" t="n">
-        <v>810845.9952378327</v>
+        <v>956452.7839585053</v>
       </c>
       <c r="AF8" t="n">
         <v>7.69465690778642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.31666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>733459.991481835</v>
+        <v>865170.2726474181</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>586.8816410460379</v>
+        <v>693.3003618895227</v>
       </c>
       <c r="AB9" t="n">
-        <v>802.9973526698702</v>
+        <v>948.604141390543</v>
       </c>
       <c r="AC9" t="n">
-        <v>726.3604123449198</v>
+        <v>858.070693510503</v>
       </c>
       <c r="AD9" t="n">
-        <v>586881.6410460379</v>
+        <v>693300.3618895228</v>
       </c>
       <c r="AE9" t="n">
-        <v>802997.3526698702</v>
+        <v>948604.141390543</v>
       </c>
       <c r="AF9" t="n">
         <v>7.723508264770995e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.23333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>726360.4123449199</v>
+        <v>858070.693510503</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>588.1760192927136</v>
+        <v>694.5947401361984</v>
       </c>
       <c r="AB10" t="n">
-        <v>804.7683780909099</v>
+        <v>950.3751668115826</v>
       </c>
       <c r="AC10" t="n">
-        <v>727.9624135854253</v>
+        <v>859.6726947510085</v>
       </c>
       <c r="AD10" t="n">
-        <v>588176.0192927136</v>
+        <v>694594.7401361985</v>
       </c>
       <c r="AE10" t="n">
-        <v>804768.3780909099</v>
+        <v>950375.1668115826</v>
       </c>
       <c r="AF10" t="n">
         <v>7.72680556271209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.225</v>
       </c>
       <c r="AH10" t="n">
-        <v>727962.4135854254</v>
+        <v>859672.6947510085</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.5376072952382</v>
+        <v>891.869833391136</v>
       </c>
       <c r="AB2" t="n">
-        <v>1028.286909800582</v>
+        <v>1220.295652565864</v>
       </c>
       <c r="AC2" t="n">
-        <v>930.1486503389557</v>
+        <v>1103.832348180682</v>
       </c>
       <c r="AD2" t="n">
-        <v>751537.6072952382</v>
+        <v>891869.833391136</v>
       </c>
       <c r="AE2" t="n">
-        <v>1028286.909800582</v>
+        <v>1220295.652565864</v>
       </c>
       <c r="AF2" t="n">
         <v>8.086839355632917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>930148.6503389557</v>
+        <v>1103832.348180682</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.0348850621868</v>
+        <v>628.300665938905</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.0616955944805</v>
+        <v>859.6686898067064</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.6761583307563</v>
+        <v>777.6231166041376</v>
       </c>
       <c r="AD3" t="n">
-        <v>516034.8850621868</v>
+        <v>628300.665938905</v>
       </c>
       <c r="AE3" t="n">
-        <v>706061.6955944805</v>
+        <v>859668.6898067064</v>
       </c>
       <c r="AF3" t="n">
         <v>1.00928725656416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>638676.1583307562</v>
+        <v>777623.1166041376</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>500.417501378539</v>
+        <v>612.581797028772</v>
       </c>
       <c r="AB4" t="n">
-        <v>684.693302248172</v>
+        <v>838.1614398963086</v>
       </c>
       <c r="AC4" t="n">
-        <v>619.3471344546909</v>
+        <v>758.1684884395734</v>
       </c>
       <c r="AD4" t="n">
-        <v>500417.501378539</v>
+        <v>612581.7970287721</v>
       </c>
       <c r="AE4" t="n">
-        <v>684693.302248172</v>
+        <v>838161.4398963086</v>
       </c>
       <c r="AF4" t="n">
         <v>1.030745541259693e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>619347.134454691</v>
+        <v>758168.4884395733</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.42250355191</v>
+        <v>1219.558875928347</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.180363665062</v>
+        <v>1668.654257185535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.968062290774</v>
+        <v>1509.400236850706</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058422.50355191</v>
+        <v>1219558.875928347</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448180.363665062</v>
+        <v>1668654.257185536</v>
       </c>
       <c r="AF2" t="n">
         <v>6.05412573810123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309968.062290774</v>
+        <v>1509400.236850706</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.1775347239071</v>
+        <v>781.4509463941326</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.5475397527721</v>
+        <v>1069.215660039072</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.600546485177</v>
+        <v>967.1712180985459</v>
       </c>
       <c r="AD3" t="n">
-        <v>658177.5347239071</v>
+        <v>781450.9463941327</v>
       </c>
       <c r="AE3" t="n">
-        <v>900547.5397527721</v>
+        <v>1069215.660039072</v>
       </c>
       <c r="AF3" t="n">
         <v>8.136103310478209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>814600.546485177</v>
+        <v>967171.2180985459</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.8875363683964</v>
+        <v>673.5768926836578</v>
       </c>
       <c r="AB4" t="n">
-        <v>766.0628277540718</v>
+        <v>921.6176206850283</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.950866649154</v>
+        <v>833.659728465303</v>
       </c>
       <c r="AD4" t="n">
-        <v>559887.5363683964</v>
+        <v>673576.8926836578</v>
       </c>
       <c r="AE4" t="n">
-        <v>766062.8277540718</v>
+        <v>921617.6206850284</v>
       </c>
       <c r="AF4" t="n">
         <v>8.921266424636169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.26666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>692950.866649154</v>
+        <v>833659.7284653031</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>524.3718682160205</v>
+        <v>638.1285443389863</v>
       </c>
       <c r="AB5" t="n">
-        <v>717.4687237472943</v>
+        <v>873.1156266090924</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.99451572653</v>
+        <v>789.7866966309983</v>
       </c>
       <c r="AD5" t="n">
-        <v>524371.8682160205</v>
+        <v>638128.5443389863</v>
       </c>
       <c r="AE5" t="n">
-        <v>717468.7237472944</v>
+        <v>873115.6266090923</v>
       </c>
       <c r="AF5" t="n">
         <v>9.142965400397776e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.70416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>648994.51572653</v>
+        <v>789786.6966309983</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.4200879598723</v>
+        <v>638.176764082838</v>
       </c>
       <c r="AB6" t="n">
-        <v>717.5347001281373</v>
+        <v>873.1816029899353</v>
       </c>
       <c r="AC6" t="n">
-        <v>649.0541954141837</v>
+        <v>789.846376318652</v>
       </c>
       <c r="AD6" t="n">
-        <v>524420.0879598722</v>
+        <v>638176.764082838</v>
       </c>
       <c r="AE6" t="n">
-        <v>717534.7001281373</v>
+        <v>873181.6029899353</v>
       </c>
       <c r="AF6" t="n">
         <v>9.159405998600323e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.6625</v>
       </c>
       <c r="AH6" t="n">
-        <v>649054.1954141837</v>
+        <v>789846.3763186519</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.7881098279523</v>
+        <v>702.271349085652</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.7139614945701</v>
+        <v>960.8786418443099</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.9174009589809</v>
+        <v>869.1737328683321</v>
       </c>
       <c r="AD2" t="n">
-        <v>572788.1098279523</v>
+        <v>702271.349085652</v>
       </c>
       <c r="AE2" t="n">
-        <v>783713.96149457</v>
+        <v>960878.6418443099</v>
       </c>
       <c r="AF2" t="n">
         <v>1.027973651114555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>708917.4009589809</v>
+        <v>869173.7328683321</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.8454893655335</v>
+        <v>596.7930878519552</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.7552325401796</v>
+        <v>816.5586314518987</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.3119261363727</v>
+        <v>738.6274217133659</v>
       </c>
       <c r="AD3" t="n">
-        <v>485845.4893655335</v>
+        <v>596793.0878519552</v>
       </c>
       <c r="AE3" t="n">
-        <v>664755.2325401796</v>
+        <v>816558.6314518987</v>
       </c>
       <c r="AF3" t="n">
         <v>1.138803192885896e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>601311.9261363727</v>
+        <v>738627.4217133659</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2224.564766773</v>
+        <v>2467.186499017184</v>
       </c>
       <c r="AB2" t="n">
-        <v>3043.747654770068</v>
+        <v>3375.713412541976</v>
       </c>
       <c r="AC2" t="n">
-        <v>2753.256650525361</v>
+        <v>3053.540062292373</v>
       </c>
       <c r="AD2" t="n">
-        <v>2224564.766773</v>
+        <v>2467186.499017184</v>
       </c>
       <c r="AE2" t="n">
-        <v>3043747.654770068</v>
+        <v>3375713.412541976</v>
       </c>
       <c r="AF2" t="n">
         <v>3.401451503686738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.26666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2753256.650525361</v>
+        <v>3053540.062292373</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>988.6788169550487</v>
+        <v>1134.31274743745</v>
       </c>
       <c r="AB3" t="n">
-        <v>1352.753974788938</v>
+        <v>1552.016743390525</v>
       </c>
       <c r="AC3" t="n">
-        <v>1223.64903403721</v>
+        <v>1403.894443670513</v>
       </c>
       <c r="AD3" t="n">
-        <v>988678.8169550487</v>
+        <v>1134312.74743745</v>
       </c>
       <c r="AE3" t="n">
-        <v>1352753.974788938</v>
+        <v>1552016.743390525</v>
       </c>
       <c r="AF3" t="n">
         <v>5.65179100506161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1223649.03403721</v>
+        <v>1403894.443670513</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>797.905238242114</v>
+        <v>933.7619091881271</v>
       </c>
       <c r="AB4" t="n">
-        <v>1091.729148057604</v>
+        <v>1277.614238819256</v>
       </c>
       <c r="AC4" t="n">
-        <v>987.5360504184681</v>
+        <v>1155.680529009191</v>
       </c>
       <c r="AD4" t="n">
-        <v>797905.2382421141</v>
+        <v>933761.9091881271</v>
       </c>
       <c r="AE4" t="n">
-        <v>1091729.148057604</v>
+        <v>1277614.238819256</v>
       </c>
       <c r="AF4" t="n">
         <v>6.467463660787838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>987536.0504184681</v>
+        <v>1155680.529009191</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>723.2384252582326</v>
+        <v>839.6782498364494</v>
       </c>
       <c r="AB5" t="n">
-        <v>989.566720465752</v>
+        <v>1148.88482541618</v>
       </c>
       <c r="AC5" t="n">
-        <v>895.1238615301149</v>
+        <v>1039.236870148439</v>
       </c>
       <c r="AD5" t="n">
-        <v>723238.4252582326</v>
+        <v>839678.2498364494</v>
       </c>
       <c r="AE5" t="n">
-        <v>989566.7204657521</v>
+        <v>1148884.82541618</v>
       </c>
       <c r="AF5" t="n">
         <v>6.894203644873403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.30833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>895123.8615301149</v>
+        <v>1039236.870148439</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>698.783230779604</v>
+        <v>824.9309730267902</v>
       </c>
       <c r="AB6" t="n">
-        <v>956.1060444930558</v>
+        <v>1128.706950681269</v>
       </c>
       <c r="AC6" t="n">
-        <v>864.8566255098992</v>
+        <v>1020.984743458402</v>
       </c>
       <c r="AD6" t="n">
-        <v>698783.2307796039</v>
+        <v>824930.9730267902</v>
       </c>
       <c r="AE6" t="n">
-        <v>956106.0444930558</v>
+        <v>1128706.950681269</v>
       </c>
       <c r="AF6" t="n">
         <v>6.985102076921789e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.99166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>864856.6255098992</v>
+        <v>1020984.743458402</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.0566612632509</v>
+        <v>756.5296402303914</v>
       </c>
       <c r="AB7" t="n">
-        <v>875.7537612473866</v>
+        <v>1035.117229495408</v>
       </c>
       <c r="AC7" t="n">
-        <v>792.1730514020587</v>
+        <v>936.3270939085215</v>
       </c>
       <c r="AD7" t="n">
-        <v>640056.661263251</v>
+        <v>756529.6402303914</v>
       </c>
       <c r="AE7" t="n">
-        <v>875753.7612473866</v>
+        <v>1035117.229495408</v>
       </c>
       <c r="AF7" t="n">
         <v>7.31611716354047e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.90416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>792173.0514020587</v>
+        <v>936327.0939085216</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>615.5631916281567</v>
+        <v>731.9346853688119</v>
       </c>
       <c r="AB8" t="n">
-        <v>842.2407155170333</v>
+        <v>1001.465327200966</v>
       </c>
       <c r="AC8" t="n">
-        <v>761.8584437203554</v>
+        <v>905.8868819383193</v>
       </c>
       <c r="AD8" t="n">
-        <v>615563.1916281567</v>
+        <v>731934.6853688118</v>
       </c>
       <c r="AE8" t="n">
-        <v>842240.7155170334</v>
+        <v>1001465.327200966</v>
       </c>
       <c r="AF8" t="n">
         <v>7.455682455225382e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.47916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>761858.4437203554</v>
+        <v>905886.8819383193</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>596.6758640980512</v>
+        <v>703.4067599774413</v>
       </c>
       <c r="AB9" t="n">
-        <v>816.3982407402603</v>
+        <v>962.4321611172491</v>
       </c>
       <c r="AC9" t="n">
-        <v>738.4823384661365</v>
+        <v>870.57898644224</v>
       </c>
       <c r="AD9" t="n">
-        <v>596675.8640980512</v>
+        <v>703406.7599774413</v>
       </c>
       <c r="AE9" t="n">
-        <v>816398.2407402603</v>
+        <v>962432.1611172491</v>
       </c>
       <c r="AF9" t="n">
         <v>7.553016174498432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>738482.3384661365</v>
+        <v>870578.98644224</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>595.1685084634539</v>
+        <v>701.8994043428439</v>
       </c>
       <c r="AB10" t="n">
-        <v>814.3358102611671</v>
+        <v>960.3697306381559</v>
       </c>
       <c r="AC10" t="n">
-        <v>736.6167434573285</v>
+        <v>868.713391433432</v>
       </c>
       <c r="AD10" t="n">
-        <v>595168.508463454</v>
+        <v>701899.4043428439</v>
       </c>
       <c r="AE10" t="n">
-        <v>814335.8102611671</v>
+        <v>960369.7306381559</v>
       </c>
       <c r="AF10" t="n">
         <v>7.564277927141596e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.15416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>736616.7434573285</v>
+        <v>868713.391433432</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>596.7551389357795</v>
+        <v>703.4860348151697</v>
       </c>
       <c r="AB11" t="n">
-        <v>816.5067080705993</v>
+        <v>962.5406284475881</v>
       </c>
       <c r="AC11" t="n">
-        <v>738.5804538267028</v>
+        <v>870.6771018028063</v>
       </c>
       <c r="AD11" t="n">
-        <v>596755.1389357796</v>
+        <v>703486.0348151696</v>
       </c>
       <c r="AE11" t="n">
-        <v>816506.7080705994</v>
+        <v>962540.6284475881</v>
       </c>
       <c r="AF11" t="n">
         <v>7.56548454349622e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.15</v>
       </c>
       <c r="AH11" t="n">
-        <v>738580.4538267028</v>
+        <v>870677.1018028063</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.4846401241481</v>
+        <v>611.8468936183334</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.8392115067758</v>
+        <v>837.1559126284963</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.5289428998416</v>
+        <v>757.2589272829346</v>
       </c>
       <c r="AD2" t="n">
-        <v>492484.6401241482</v>
+        <v>611846.8936183334</v>
       </c>
       <c r="AE2" t="n">
-        <v>673839.2115067758</v>
+        <v>837155.9126284963</v>
       </c>
       <c r="AF2" t="n">
         <v>1.186003163912097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>609528.9428998416</v>
+        <v>757258.9272829345</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.3113896645231</v>
+        <v>593.7409629664128</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.9737684806909</v>
+        <v>812.382579533253</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.0366228572977</v>
+        <v>734.8499263287099</v>
       </c>
       <c r="AD3" t="n">
-        <v>474311.3896645231</v>
+        <v>593740.9629664128</v>
       </c>
       <c r="AE3" t="n">
-        <v>648973.7684806909</v>
+        <v>812382.579533253</v>
       </c>
       <c r="AF3" t="n">
         <v>1.208569667881975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587036.6228572978</v>
+        <v>734849.9263287099</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1445.697733659243</v>
+        <v>1646.986722277136</v>
       </c>
       <c r="AB2" t="n">
-        <v>1978.067418875241</v>
+        <v>2253.479893345683</v>
       </c>
       <c r="AC2" t="n">
-        <v>1789.283440652846</v>
+        <v>2038.410935103665</v>
       </c>
       <c r="AD2" t="n">
-        <v>1445697.733659243</v>
+        <v>1646986.722277136</v>
       </c>
       <c r="AE2" t="n">
-        <v>1978067.418875241</v>
+        <v>2253479.893345683</v>
       </c>
       <c r="AF2" t="n">
         <v>4.69637116348848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1789283.440652846</v>
+        <v>2038410.935103665</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.069996133009</v>
+        <v>930.2067238768265</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.218088838759</v>
+        <v>1272.749877432627</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.2646431671757</v>
+        <v>1151.280415446129</v>
       </c>
       <c r="AD3" t="n">
-        <v>796069.996133009</v>
+        <v>930206.7238768265</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089218.088838759</v>
+        <v>1272749.877432628</v>
       </c>
       <c r="AF3" t="n">
         <v>6.865961086424612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>985264.6431671757</v>
+        <v>1151280.415446129</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.5998169456092</v>
+        <v>790.1139354870527</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.703033736486</v>
+        <v>1081.06874390011</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.7868143764108</v>
+        <v>977.8930602717946</v>
       </c>
       <c r="AD4" t="n">
-        <v>665599.8169456092</v>
+        <v>790113.9354870527</v>
       </c>
       <c r="AE4" t="n">
-        <v>910703.033736486</v>
+        <v>1081068.74390011</v>
       </c>
       <c r="AF4" t="n">
         <v>7.641294812241492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>823786.8143764108</v>
+        <v>977893.0602717947</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>608.2289733388106</v>
+        <v>723.1888135154421</v>
       </c>
       <c r="AB5" t="n">
-        <v>832.2057144906752</v>
+        <v>989.4988394905504</v>
       </c>
       <c r="AC5" t="n">
-        <v>752.7811691077405</v>
+        <v>895.062459019915</v>
       </c>
       <c r="AD5" t="n">
-        <v>608228.9733388106</v>
+        <v>723188.8135154421</v>
       </c>
       <c r="AE5" t="n">
-        <v>832205.7144906751</v>
+        <v>989498.8394905503</v>
       </c>
       <c r="AF5" t="n">
         <v>8.032098863635894e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>752781.1691077405</v>
+        <v>895062.459019915</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>565.8783702055774</v>
+        <v>680.9055301899132</v>
       </c>
       <c r="AB6" t="n">
-        <v>774.2597509070388</v>
+        <v>931.6449858377553</v>
       </c>
       <c r="AC6" t="n">
-        <v>700.3654869608556</v>
+        <v>842.7300959613493</v>
       </c>
       <c r="AD6" t="n">
-        <v>565878.3702055775</v>
+        <v>680905.5301899132</v>
       </c>
       <c r="AE6" t="n">
-        <v>774259.7509070388</v>
+        <v>931644.9858377553</v>
       </c>
       <c r="AF6" t="n">
         <v>8.270077018785467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.57916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>700365.4869608557</v>
+        <v>842730.0959613493</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>555.0899257908761</v>
+        <v>660.4954876026951</v>
       </c>
       <c r="AB7" t="n">
-        <v>759.4985253062678</v>
+        <v>903.7190651423936</v>
       </c>
       <c r="AC7" t="n">
-        <v>687.013052013912</v>
+        <v>817.4693859428769</v>
       </c>
       <c r="AD7" t="n">
-        <v>555089.9257908762</v>
+        <v>660495.4876026951</v>
       </c>
       <c r="AE7" t="n">
-        <v>759498.5253062678</v>
+        <v>903719.0651423936</v>
       </c>
       <c r="AF7" t="n">
         <v>8.34536954244861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>687013.052013912</v>
+        <v>817469.3859428769</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>556.8940410271879</v>
+        <v>662.2996028390071</v>
       </c>
       <c r="AB8" t="n">
-        <v>761.9669953645365</v>
+        <v>906.1875352006622</v>
       </c>
       <c r="AC8" t="n">
-        <v>689.245934754339</v>
+        <v>819.7022686833039</v>
       </c>
       <c r="AD8" t="n">
-        <v>556894.0410271878</v>
+        <v>662299.602839007</v>
       </c>
       <c r="AE8" t="n">
-        <v>761966.9953645365</v>
+        <v>906187.5352006622</v>
       </c>
       <c r="AF8" t="n">
         <v>8.344921372664901e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.37916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>689245.934754339</v>
+        <v>819702.268683304</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1794.208037845143</v>
+        <v>2006.464707572897</v>
       </c>
       <c r="AB2" t="n">
-        <v>2454.914592251883</v>
+        <v>2745.333531876779</v>
       </c>
       <c r="AC2" t="n">
-        <v>2220.620989061633</v>
+        <v>2483.322752694271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1794208.037845143</v>
+        <v>2006464.707572897</v>
       </c>
       <c r="AE2" t="n">
-        <v>2454914.592251883</v>
+        <v>2745333.53187678</v>
       </c>
       <c r="AF2" t="n">
         <v>3.991314955346989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.16249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>2220620.989061633</v>
+        <v>2483322.752694271</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>889.7150332409385</v>
+        <v>1034.345739097122</v>
       </c>
       <c r="AB3" t="n">
-        <v>1217.34735993729</v>
+        <v>1415.237472346138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1101.165436462625</v>
+        <v>1280.16919428369</v>
       </c>
       <c r="AD3" t="n">
-        <v>889715.0332409386</v>
+        <v>1034345.739097122</v>
       </c>
       <c r="AE3" t="n">
-        <v>1217347.35993729</v>
+        <v>1415237.472346138</v>
       </c>
       <c r="AF3" t="n">
         <v>6.208007098009228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.39166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1101165.436462625</v>
+        <v>1280169.19428369</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.5433656249143</v>
+        <v>861.9060560330183</v>
       </c>
       <c r="AB4" t="n">
-        <v>1007.771126847989</v>
+        <v>1179.297890475926</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.5908649172754</v>
+        <v>1066.747354963888</v>
       </c>
       <c r="AD4" t="n">
-        <v>736543.3656249143</v>
+        <v>861906.0560330183</v>
       </c>
       <c r="AE4" t="n">
-        <v>1007771.126847988</v>
+        <v>1179297.890475926</v>
       </c>
       <c r="AF4" t="n">
         <v>7.001616727710441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.175</v>
       </c>
       <c r="AH4" t="n">
-        <v>911590.8649172755</v>
+        <v>1066747.354963888</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>657.8360377402367</v>
+        <v>773.6491229413962</v>
       </c>
       <c r="AB5" t="n">
-        <v>900.0802885139306</v>
+        <v>1058.540860998879</v>
       </c>
       <c r="AC5" t="n">
-        <v>814.1778890487792</v>
+        <v>957.5152068965742</v>
       </c>
       <c r="AD5" t="n">
-        <v>657836.0377402367</v>
+        <v>773649.1229413962</v>
       </c>
       <c r="AE5" t="n">
-        <v>900080.2885139305</v>
+        <v>1058540.860998878</v>
       </c>
       <c r="AF5" t="n">
         <v>7.445378189094543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.675</v>
       </c>
       <c r="AH5" t="n">
-        <v>814177.8890487792</v>
+        <v>957515.2068965742</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>628.9158015983045</v>
+        <v>735.0446419771102</v>
       </c>
       <c r="AB6" t="n">
-        <v>860.5103455537667</v>
+        <v>1005.720507034042</v>
       </c>
       <c r="AC6" t="n">
-        <v>778.3844459079698</v>
+        <v>909.7359533803093</v>
       </c>
       <c r="AD6" t="n">
-        <v>628915.8015983045</v>
+        <v>735044.6419771103</v>
       </c>
       <c r="AE6" t="n">
-        <v>860510.3455537667</v>
+        <v>1005720.507034042</v>
       </c>
       <c r="AF6" t="n">
         <v>7.643357563668193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>778384.4459079698</v>
+        <v>909735.9533803093</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>589.8431028986381</v>
+        <v>705.6220226810166</v>
       </c>
       <c r="AB7" t="n">
-        <v>807.0493554270738</v>
+        <v>965.463181278774</v>
       </c>
       <c r="AC7" t="n">
-        <v>730.0256976459975</v>
+        <v>873.3207302936124</v>
       </c>
       <c r="AD7" t="n">
-        <v>589843.1028986381</v>
+        <v>705622.0226810166</v>
       </c>
       <c r="AE7" t="n">
-        <v>807049.3554270738</v>
+        <v>965463.1812787739</v>
       </c>
       <c r="AF7" t="n">
         <v>7.832030215505474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.50416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>730025.6976459975</v>
+        <v>873320.7302936125</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>574.9094371268702</v>
+        <v>681.0041120868951</v>
       </c>
       <c r="AB8" t="n">
-        <v>786.6164550913048</v>
+        <v>931.7798699383322</v>
       </c>
       <c r="AC8" t="n">
-        <v>711.5428846405185</v>
+        <v>842.8521069126781</v>
       </c>
       <c r="AD8" t="n">
-        <v>574909.4371268703</v>
+        <v>681004.1120868952</v>
       </c>
       <c r="AE8" t="n">
-        <v>786616.4550913048</v>
+        <v>931779.8699383322</v>
       </c>
       <c r="AF8" t="n">
         <v>7.921713180055933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>711542.8846405186</v>
+        <v>842852.1069126781</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>576.5604337685218</v>
+        <v>682.6551087285469</v>
       </c>
       <c r="AB9" t="n">
-        <v>788.8754215332438</v>
+        <v>934.0388363802713</v>
       </c>
       <c r="AC9" t="n">
-        <v>713.5862584957182</v>
+        <v>844.8954807678778</v>
       </c>
       <c r="AD9" t="n">
-        <v>576560.4337685218</v>
+        <v>682655.1087285469</v>
       </c>
       <c r="AE9" t="n">
-        <v>788875.4215332437</v>
+        <v>934038.8363802712</v>
       </c>
       <c r="AF9" t="n">
         <v>7.920867114352626e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.25416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>713586.2584957182</v>
+        <v>844895.4807678778</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2801.205443646133</v>
+        <v>3084.259327134936</v>
       </c>
       <c r="AB2" t="n">
-        <v>3832.73286845916</v>
+        <v>4220.019679304582</v>
       </c>
       <c r="AC2" t="n">
-        <v>3466.94222276764</v>
+        <v>3817.266923946413</v>
       </c>
       <c r="AD2" t="n">
-        <v>2801205.443646133</v>
+        <v>3084259.327134936</v>
       </c>
       <c r="AE2" t="n">
-        <v>3832732.86845916</v>
+        <v>4220019.679304582</v>
       </c>
       <c r="AF2" t="n">
         <v>2.884195226119747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.55416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3466942.222767639</v>
+        <v>3817266.923946413</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1094.810777316386</v>
+        <v>1250.981971525945</v>
       </c>
       <c r="AB3" t="n">
-        <v>1497.968405166958</v>
+        <v>1711.648722871307</v>
       </c>
       <c r="AC3" t="n">
-        <v>1355.004402989684</v>
+        <v>1548.291371074539</v>
       </c>
       <c r="AD3" t="n">
-        <v>1094810.777316386</v>
+        <v>1250981.971525945</v>
       </c>
       <c r="AE3" t="n">
-        <v>1497968.405166958</v>
+        <v>1711648.722871307</v>
       </c>
       <c r="AF3" t="n">
         <v>5.170400642024001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.99166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1355004.402989684</v>
+        <v>1548291.371074539</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.2428366231287</v>
+        <v>1009.888360879145</v>
       </c>
       <c r="AB4" t="n">
-        <v>1194.809373822776</v>
+        <v>1381.773808484926</v>
       </c>
       <c r="AC4" t="n">
-        <v>1080.778444110618</v>
+        <v>1249.899255534845</v>
       </c>
       <c r="AD4" t="n">
-        <v>873242.8366231287</v>
+        <v>1009888.360879145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1194809.373822776</v>
+        <v>1381773.808484926</v>
       </c>
       <c r="AF4" t="n">
         <v>5.994895917330766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1080778.444110618</v>
+        <v>1249899.255534844</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>776.0225196499175</v>
+        <v>902.9052089291622</v>
       </c>
       <c r="AB5" t="n">
-        <v>1061.788247082351</v>
+        <v>1235.3947402234</v>
       </c>
       <c r="AC5" t="n">
-        <v>960.4526670099746</v>
+        <v>1117.490400103886</v>
       </c>
       <c r="AD5" t="n">
-        <v>776022.5196499175</v>
+        <v>902905.2089291622</v>
       </c>
       <c r="AE5" t="n">
-        <v>1061788.247082351</v>
+        <v>1235394.7402234</v>
       </c>
       <c r="AF5" t="n">
         <v>6.445214931968928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>960452.6670099746</v>
+        <v>1117490.400103886</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>710.5173156850751</v>
+        <v>827.6713354063294</v>
       </c>
       <c r="AB6" t="n">
-        <v>972.1611371320121</v>
+        <v>1132.45643538521</v>
       </c>
       <c r="AC6" t="n">
-        <v>879.3794426408575</v>
+        <v>1024.376382604635</v>
       </c>
       <c r="AD6" t="n">
-        <v>710517.3156850751</v>
+        <v>827671.3354063294</v>
       </c>
       <c r="AE6" t="n">
-        <v>972161.1371320121</v>
+        <v>1132456.43538521</v>
       </c>
       <c r="AF6" t="n">
         <v>6.798624987009469e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.56666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>879379.4426408575</v>
+        <v>1024376.382604634</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>698.4162654171091</v>
+        <v>815.468799911878</v>
       </c>
       <c r="AB7" t="n">
-        <v>955.6039462947213</v>
+        <v>1115.76038798383</v>
       </c>
       <c r="AC7" t="n">
-        <v>864.4024468589143</v>
+        <v>1009.273782534192</v>
       </c>
       <c r="AD7" t="n">
-        <v>698416.2654171091</v>
+        <v>815468.7999118781</v>
       </c>
       <c r="AE7" t="n">
-        <v>955603.9462947212</v>
+        <v>1115760.38798383</v>
       </c>
       <c r="AF7" t="n">
         <v>6.86592287561893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.3375</v>
       </c>
       <c r="AH7" t="n">
-        <v>864402.4468589143</v>
+        <v>1009273.782534192</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>662.9157680311494</v>
+        <v>780.035622333623</v>
       </c>
       <c r="AB8" t="n">
-        <v>907.0305995998415</v>
+        <v>1067.279151219791</v>
       </c>
       <c r="AC8" t="n">
-        <v>820.4648721994738</v>
+        <v>965.4195269630707</v>
       </c>
       <c r="AD8" t="n">
-        <v>662915.7680311494</v>
+        <v>780035.622333623</v>
       </c>
       <c r="AE8" t="n">
-        <v>907030.5995998415</v>
+        <v>1067279.151219791</v>
       </c>
       <c r="AF8" t="n">
         <v>7.013593671196261e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.84583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>820464.8721994738</v>
+        <v>965419.5269630706</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>641.9843733439913</v>
+        <v>759.0027424199794</v>
       </c>
       <c r="AB9" t="n">
-        <v>878.3913419609102</v>
+        <v>1038.501037016771</v>
       </c>
       <c r="AC9" t="n">
-        <v>794.5589051141516</v>
+        <v>939.3879555892493</v>
       </c>
       <c r="AD9" t="n">
-        <v>641984.3733439912</v>
+        <v>759002.7424199794</v>
       </c>
       <c r="AE9" t="n">
-        <v>878391.3419609101</v>
+        <v>1038501.037016771</v>
       </c>
       <c r="AF9" t="n">
         <v>7.125885005333189e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.4875</v>
       </c>
       <c r="AH9" t="n">
-        <v>794558.9051141515</v>
+        <v>939387.9555892493</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>632.1829666975265</v>
+        <v>739.5068316343052</v>
       </c>
       <c r="AB10" t="n">
-        <v>864.9806249796737</v>
+        <v>1011.82587178093</v>
       </c>
       <c r="AC10" t="n">
-        <v>782.4280881395448</v>
+        <v>915.2586306846878</v>
       </c>
       <c r="AD10" t="n">
-        <v>632182.9666975265</v>
+        <v>739506.8316343052</v>
       </c>
       <c r="AE10" t="n">
-        <v>864980.6249796738</v>
+        <v>1011825.87178093</v>
       </c>
       <c r="AF10" t="n">
         <v>7.148189448415182e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.41666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>782428.0881395448</v>
+        <v>915258.6306846878</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>616.3018721537311</v>
+        <v>723.6257370905096</v>
       </c>
       <c r="AB11" t="n">
-        <v>843.2514108004091</v>
+        <v>990.0966576016656</v>
       </c>
       <c r="AC11" t="n">
-        <v>762.7726796644055</v>
+        <v>895.6032222095483</v>
       </c>
       <c r="AD11" t="n">
-        <v>616301.8721537311</v>
+        <v>723625.7370905096</v>
       </c>
       <c r="AE11" t="n">
-        <v>843251.410800409</v>
+        <v>990096.6576016656</v>
       </c>
       <c r="AF11" t="n">
         <v>7.240483695651014e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.12916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>762772.6796644055</v>
+        <v>895603.2222095483</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>617.3954678454687</v>
+        <v>724.7193327822473</v>
       </c>
       <c r="AB12" t="n">
-        <v>844.7477166718814</v>
+        <v>991.592963473138</v>
       </c>
       <c r="AC12" t="n">
-        <v>764.1261802035831</v>
+        <v>896.956722748726</v>
       </c>
       <c r="AD12" t="n">
-        <v>617395.4678454687</v>
+        <v>724719.3327822473</v>
       </c>
       <c r="AE12" t="n">
-        <v>844747.7166718815</v>
+        <v>991592.9634731379</v>
       </c>
       <c r="AF12" t="n">
         <v>7.240099136287532e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.13333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>764126.1802035831</v>
+        <v>896956.7227487259</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1180.132329838795</v>
+        <v>1351.4203658368</v>
       </c>
       <c r="AB2" t="n">
-        <v>1614.709117449356</v>
+        <v>1849.07296499665</v>
       </c>
       <c r="AC2" t="n">
-        <v>1460.603545538469</v>
+        <v>1672.600036407575</v>
       </c>
       <c r="AD2" t="n">
-        <v>1180132.329838795</v>
+        <v>1351420.3658368</v>
       </c>
       <c r="AE2" t="n">
-        <v>1614709.117449356</v>
+        <v>1849072.96499665</v>
       </c>
       <c r="AF2" t="n">
         <v>5.547254411937668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1460603.545538469</v>
+        <v>1672600.036407575</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.6462051866782</v>
+        <v>828.3355312386526</v>
       </c>
       <c r="AB3" t="n">
-        <v>964.1280247329906</v>
+        <v>1133.365217425247</v>
       </c>
       <c r="AC3" t="n">
-        <v>872.1129992146548</v>
+        <v>1025.198431762253</v>
       </c>
       <c r="AD3" t="n">
-        <v>704646.2051866782</v>
+        <v>828335.5312386526</v>
       </c>
       <c r="AE3" t="n">
-        <v>964128.0247329907</v>
+        <v>1133365.217425246</v>
       </c>
       <c r="AF3" t="n">
         <v>7.680629412639649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>872112.9992146548</v>
+        <v>1025198.431762253</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.8319960983852</v>
+        <v>708.068899968858</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.5071350805158</v>
+        <v>968.8111067326057</v>
       </c>
       <c r="AC4" t="n">
-        <v>734.9625944693571</v>
+        <v>876.3491344409734</v>
       </c>
       <c r="AD4" t="n">
-        <v>593831.9960983852</v>
+        <v>708068.899968858</v>
       </c>
       <c r="AE4" t="n">
-        <v>812507.1350805158</v>
+        <v>968811.1067326057</v>
       </c>
       <c r="AF4" t="n">
         <v>8.429468008391669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.69583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>734962.594469357</v>
+        <v>876349.1344409734</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.6286247325914</v>
+        <v>658.8313631842834</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.1849116782926</v>
+        <v>901.4421366971347</v>
       </c>
       <c r="AC5" t="n">
-        <v>674.0655095813078</v>
+        <v>815.4097643527444</v>
       </c>
       <c r="AD5" t="n">
-        <v>544628.6247325914</v>
+        <v>658831.3631842834</v>
       </c>
       <c r="AE5" t="n">
-        <v>745184.9116782926</v>
+        <v>901442.1366971347</v>
       </c>
       <c r="AF5" t="n">
         <v>8.763137446703711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>674065.5095813078</v>
+        <v>815409.7643527444</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>534.5881264713638</v>
+        <v>648.7908649230558</v>
       </c>
       <c r="AB6" t="n">
-        <v>731.44705900176</v>
+        <v>887.704284020602</v>
       </c>
       <c r="AC6" t="n">
-        <v>661.6387782830261</v>
+        <v>802.9830330544627</v>
       </c>
       <c r="AD6" t="n">
-        <v>534588.1264713638</v>
+        <v>648790.8649230557</v>
       </c>
       <c r="AE6" t="n">
-        <v>731447.05900176</v>
+        <v>887704.284020602</v>
       </c>
       <c r="AF6" t="n">
         <v>8.863334160219826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.5375</v>
       </c>
       <c r="AH6" t="n">
-        <v>661638.7782830261</v>
+        <v>802983.0330544626</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>850.5592050937892</v>
+        <v>1000.872653765653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1163.772628433139</v>
+        <v>1369.43812026732</v>
       </c>
       <c r="AC2" t="n">
-        <v>1052.703802140622</v>
+        <v>1238.74086808748</v>
       </c>
       <c r="AD2" t="n">
-        <v>850559.2050937891</v>
+        <v>1000872.653765653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1163772.628433139</v>
+        <v>1369438.12026732</v>
       </c>
       <c r="AF2" t="n">
         <v>7.298099473878192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.12083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1052703.802140622</v>
+        <v>1238740.86808748</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.5996985946232</v>
+        <v>679.3435792106807</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.2467042316939</v>
+        <v>929.5078555995552</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.2582468454032</v>
+        <v>840.7969304336018</v>
       </c>
       <c r="AD3" t="n">
-        <v>566599.6985946232</v>
+        <v>679343.5792106807</v>
       </c>
       <c r="AE3" t="n">
-        <v>775246.7042316939</v>
+        <v>929507.8555995552</v>
       </c>
       <c r="AF3" t="n">
         <v>9.34067332573221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>701258.2468454032</v>
+        <v>840796.9304336018</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.6673279120208</v>
+        <v>615.0444405782123</v>
       </c>
       <c r="AB4" t="n">
-        <v>700.085811218601</v>
+        <v>841.5309374448182</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.2706039725042</v>
+        <v>761.2164058711728</v>
       </c>
       <c r="AD4" t="n">
-        <v>511667.3279120208</v>
+        <v>615044.4405782123</v>
       </c>
       <c r="AE4" t="n">
-        <v>700085.811218601</v>
+        <v>841530.9374448182</v>
       </c>
       <c r="AF4" t="n">
         <v>9.859084783728786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>633270.6039725041</v>
+        <v>761216.4058711728</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>502.6704281777942</v>
+        <v>615.4474631827751</v>
       </c>
       <c r="AB5" t="n">
-        <v>687.7758560870285</v>
+        <v>842.0823707524836</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.1354936815584</v>
+        <v>761.7152111578961</v>
       </c>
       <c r="AD5" t="n">
-        <v>502670.4281777942</v>
+        <v>615447.4631827751</v>
       </c>
       <c r="AE5" t="n">
-        <v>687775.8560870285</v>
+        <v>842082.3707524836</v>
       </c>
       <c r="AF5" t="n">
         <v>9.883070171901078e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.98333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>622135.4936815584</v>
+        <v>761715.2111578961</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>665.4706821087608</v>
+        <v>795.6869061481887</v>
       </c>
       <c r="AB2" t="n">
-        <v>910.5263457556833</v>
+        <v>1088.69392822079</v>
       </c>
       <c r="AC2" t="n">
-        <v>823.6269892485126</v>
+        <v>984.7905077029222</v>
       </c>
       <c r="AD2" t="n">
-        <v>665470.6821087608</v>
+        <v>795686.9061481886</v>
       </c>
       <c r="AE2" t="n">
-        <v>910526.3457556834</v>
+        <v>1088693.92822079</v>
       </c>
       <c r="AF2" t="n">
         <v>9.056825055405339e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>823626.9892485125</v>
+        <v>984790.5077029222</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.7651131594965</v>
+        <v>600.436722171324</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.7499906197908</v>
+        <v>821.5440126734607</v>
       </c>
       <c r="AC3" t="n">
-        <v>604.9254301115438</v>
+        <v>743.1370051481684</v>
       </c>
       <c r="AD3" t="n">
-        <v>488765.1131594965</v>
+        <v>600436.7221713241</v>
       </c>
       <c r="AE3" t="n">
-        <v>668749.9906197907</v>
+        <v>821544.0126734606</v>
       </c>
       <c r="AF3" t="n">
         <v>1.078321728578543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>604925.4301115439</v>
+        <v>743137.0051481684</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.804916473863</v>
+        <v>601.4765254856907</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.1726953873919</v>
+        <v>822.9667174410616</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.2123539329037</v>
+        <v>744.4239289695283</v>
       </c>
       <c r="AD4" t="n">
-        <v>489804.916473863</v>
+        <v>601476.5254856907</v>
       </c>
       <c r="AE4" t="n">
-        <v>670172.6953873918</v>
+        <v>822966.7174410616</v>
       </c>
       <c r="AF4" t="n">
         <v>1.07991343772712e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.62083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>606212.3539329037</v>
+        <v>744423.9289695283</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.9034747684559</v>
+        <v>596.3664558392078</v>
       </c>
       <c r="AB2" t="n">
-        <v>653.8886177915023</v>
+        <v>815.9748947103817</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.4824058479196</v>
+        <v>738.0993959871797</v>
       </c>
       <c r="AD2" t="n">
-        <v>477903.4747684559</v>
+        <v>596366.4558392077</v>
       </c>
       <c r="AE2" t="n">
-        <v>653888.6177915023</v>
+        <v>815974.8947103817</v>
       </c>
       <c r="AF2" t="n">
         <v>1.289423781735759e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>591482.4058479196</v>
+        <v>738099.3959871797</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1604.92392731977</v>
+        <v>1816.505170710986</v>
       </c>
       <c r="AB2" t="n">
-        <v>2195.927721605469</v>
+        <v>2485.422513119007</v>
       </c>
       <c r="AC2" t="n">
-        <v>1986.351461859357</v>
+        <v>2248.217276779335</v>
       </c>
       <c r="AD2" t="n">
-        <v>1604923.92731977</v>
+        <v>1816505.170710986</v>
       </c>
       <c r="AE2" t="n">
-        <v>2195927.721605469</v>
+        <v>2485422.513119007</v>
       </c>
       <c r="AF2" t="n">
         <v>4.329701310722689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1986351.461859357</v>
+        <v>2248217.276779335</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.3393013579459</v>
+        <v>981.5774984036423</v>
       </c>
       <c r="AB3" t="n">
-        <v>1145.684572920767</v>
+        <v>1343.03763745884</v>
       </c>
       <c r="AC3" t="n">
-        <v>1036.342045259606</v>
+        <v>1214.860010304931</v>
       </c>
       <c r="AD3" t="n">
-        <v>837339.3013579459</v>
+        <v>981577.4984036422</v>
       </c>
       <c r="AE3" t="n">
-        <v>1145684.572920767</v>
+        <v>1343037.63745884</v>
       </c>
       <c r="AF3" t="n">
         <v>6.522825080932033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1036342.045259606</v>
+        <v>1214860.010304931</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>695.3336855267667</v>
+        <v>820.3651776068094</v>
       </c>
       <c r="AB4" t="n">
-        <v>951.386224494928</v>
+        <v>1122.459827958973</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.5872585080839</v>
+        <v>1015.333837360831</v>
       </c>
       <c r="AD4" t="n">
-        <v>695333.6855267667</v>
+        <v>820365.1776068094</v>
       </c>
       <c r="AE4" t="n">
-        <v>951386.224494928</v>
+        <v>1122459.827958973</v>
       </c>
       <c r="AF4" t="n">
         <v>7.311862470690015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.7875</v>
       </c>
       <c r="AH4" t="n">
-        <v>860587.2585080839</v>
+        <v>1015333.837360831</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.8430591799463</v>
+        <v>739.1867962600674</v>
       </c>
       <c r="AB5" t="n">
-        <v>853.569595583368</v>
+        <v>1011.387985262934</v>
       </c>
       <c r="AC5" t="n">
-        <v>772.1061113733421</v>
+        <v>914.8625354413912</v>
       </c>
       <c r="AD5" t="n">
-        <v>623843.0591799463</v>
+        <v>739186.7962600674</v>
       </c>
       <c r="AE5" t="n">
-        <v>853569.595583368</v>
+        <v>1011387.985262934</v>
       </c>
       <c r="AF5" t="n">
         <v>7.81120917600543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>772106.1113733421</v>
+        <v>914862.5354413912</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>592.8736417655414</v>
+        <v>708.2846986533668</v>
       </c>
       <c r="AB6" t="n">
-        <v>811.1958724027099</v>
+        <v>969.1063720131169</v>
       </c>
       <c r="AC6" t="n">
-        <v>733.7764768611519</v>
+        <v>876.6162200175202</v>
       </c>
       <c r="AD6" t="n">
-        <v>592873.6417655414</v>
+        <v>708284.6986533669</v>
       </c>
       <c r="AE6" t="n">
-        <v>811195.8724027099</v>
+        <v>969106.372013117</v>
       </c>
       <c r="AF6" t="n">
         <v>7.943005388296869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>733776.4768611519</v>
+        <v>876616.2200175201</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>567.172258926755</v>
+        <v>672.9297262334397</v>
       </c>
       <c r="AB7" t="n">
-        <v>776.0301065376955</v>
+        <v>920.7321389968712</v>
       </c>
       <c r="AC7" t="n">
-        <v>701.9668823348323</v>
+        <v>832.8587559066822</v>
       </c>
       <c r="AD7" t="n">
-        <v>567172.2589267551</v>
+        <v>672929.7262334398</v>
       </c>
       <c r="AE7" t="n">
-        <v>776030.1065376955</v>
+        <v>920732.1389968712</v>
       </c>
       <c r="AF7" t="n">
         <v>8.106119512419936e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.35833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>701966.8823348323</v>
+        <v>832858.7559066822</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>565.4297073799382</v>
+        <v>671.1871746866229</v>
       </c>
       <c r="AB8" t="n">
-        <v>773.6458706353923</v>
+        <v>918.3479030945679</v>
       </c>
       <c r="AC8" t="n">
-        <v>699.8101945607488</v>
+        <v>830.7020681325987</v>
       </c>
       <c r="AD8" t="n">
-        <v>565429.7073799382</v>
+        <v>671187.1746866229</v>
       </c>
       <c r="AE8" t="n">
-        <v>773645.8706353923</v>
+        <v>918347.9030945678</v>
       </c>
       <c r="AF8" t="n">
         <v>8.129172975295996e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.29583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>699810.1945607488</v>
+        <v>830702.0681325987</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2491.906902259042</v>
+        <v>2754.652129023696</v>
       </c>
       <c r="AB2" t="n">
-        <v>3409.53695884471</v>
+        <v>3769.036569605445</v>
       </c>
       <c r="AC2" t="n">
-        <v>3084.135536807618</v>
+        <v>3409.325009278208</v>
       </c>
       <c r="AD2" t="n">
-        <v>2491906.902259042</v>
+        <v>2754652.129023695</v>
       </c>
       <c r="AE2" t="n">
-        <v>3409536.95884471</v>
+        <v>3769036.569605445</v>
       </c>
       <c r="AF2" t="n">
         <v>3.134873773240969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3084135.536807618</v>
+        <v>3409325.009278208</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1042.092842372274</v>
+        <v>1188.070454458968</v>
       </c>
       <c r="AB3" t="n">
-        <v>1425.837400825277</v>
+        <v>1625.570409760019</v>
       </c>
       <c r="AC3" t="n">
-        <v>1289.757480465872</v>
+        <v>1470.428251354921</v>
       </c>
       <c r="AD3" t="n">
-        <v>1042092.842372274</v>
+        <v>1188070.454458968</v>
       </c>
       <c r="AE3" t="n">
-        <v>1425837.400825277</v>
+        <v>1625570.409760019</v>
       </c>
       <c r="AF3" t="n">
         <v>5.415675240908639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.24166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1289757.480465872</v>
+        <v>1470428.251354921</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>837.6198750119814</v>
+        <v>964.1248295127559</v>
       </c>
       <c r="AB4" t="n">
-        <v>1146.068466172254</v>
+        <v>1319.158125924919</v>
       </c>
       <c r="AC4" t="n">
-        <v>1036.689300277969</v>
+        <v>1193.259525836702</v>
       </c>
       <c r="AD4" t="n">
-        <v>837619.8750119815</v>
+        <v>964124.829512756</v>
       </c>
       <c r="AE4" t="n">
-        <v>1146068.466172254</v>
+        <v>1319158.125924919</v>
       </c>
       <c r="AF4" t="n">
         <v>6.235553211192073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1036689.300277969</v>
+        <v>1193259.525836702</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>749.1918195910624</v>
+        <v>875.7299284807607</v>
       </c>
       <c r="AB5" t="n">
-        <v>1025.077299574879</v>
+        <v>1198.212322625137</v>
       </c>
       <c r="AC5" t="n">
-        <v>927.2453608084775</v>
+        <v>1083.85662025535</v>
       </c>
       <c r="AD5" t="n">
-        <v>749191.8195910624</v>
+        <v>875729.9284807607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1025077.299574879</v>
+        <v>1198212.322625137</v>
       </c>
       <c r="AF5" t="n">
         <v>6.663178921483719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.57916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>927245.3608084775</v>
+        <v>1083856.62025535</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>695.5449369137403</v>
+        <v>812.3808824292595</v>
       </c>
       <c r="AB6" t="n">
-        <v>951.6752679623389</v>
+        <v>1111.535363054806</v>
       </c>
       <c r="AC6" t="n">
-        <v>860.8487160726399</v>
+        <v>1005.451988054535</v>
       </c>
       <c r="AD6" t="n">
-        <v>695544.9369137404</v>
+        <v>812380.8824292595</v>
       </c>
       <c r="AE6" t="n">
-        <v>951675.2679623389</v>
+        <v>1111535.363054806</v>
       </c>
       <c r="AF6" t="n">
         <v>6.956385520635896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>860848.7160726399</v>
+        <v>1005451.988054535</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.1392731405441</v>
+        <v>790.8737334295779</v>
       </c>
       <c r="AB7" t="n">
-        <v>922.387094436615</v>
+        <v>1082.108332964993</v>
       </c>
       <c r="AC7" t="n">
-        <v>834.3557647220015</v>
+        <v>978.8334324153972</v>
       </c>
       <c r="AD7" t="n">
-        <v>674139.2731405441</v>
+        <v>790873.7334295779</v>
       </c>
       <c r="AE7" t="n">
-        <v>922387.094436615</v>
+        <v>1082108.332964993</v>
       </c>
       <c r="AF7" t="n">
         <v>7.084122980052059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.11666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>834355.7647220015</v>
+        <v>978833.4324153971</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>639.4007491161996</v>
+        <v>756.2025292129379</v>
       </c>
       <c r="AB8" t="n">
-        <v>874.856313310989</v>
+        <v>1034.669661770208</v>
       </c>
       <c r="AC8" t="n">
-        <v>791.3612546371349</v>
+        <v>935.92224141885</v>
       </c>
       <c r="AD8" t="n">
-        <v>639400.7491161996</v>
+        <v>756202.5292129378</v>
       </c>
       <c r="AE8" t="n">
-        <v>874856.3133109889</v>
+        <v>1034669.661770209</v>
       </c>
       <c r="AF8" t="n">
         <v>7.230726279628147e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.65</v>
       </c>
       <c r="AH8" t="n">
-        <v>791361.254637135</v>
+        <v>935922.24141885</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>618.2479613285519</v>
+        <v>725.2802582434065</v>
       </c>
       <c r="AB9" t="n">
-        <v>845.9141358647938</v>
+        <v>992.3604464353807</v>
       </c>
       <c r="AC9" t="n">
-        <v>765.1812779858036</v>
+        <v>897.6509582142215</v>
       </c>
       <c r="AD9" t="n">
-        <v>618247.9613285519</v>
+        <v>725280.2582434064</v>
       </c>
       <c r="AE9" t="n">
-        <v>845914.1358647938</v>
+        <v>992360.4464353807</v>
       </c>
       <c r="AF9" t="n">
         <v>7.34077701389438e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.30833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>765181.2779858036</v>
+        <v>897650.9582142215</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>608.1180608856821</v>
+        <v>715.1503578005368</v>
       </c>
       <c r="AB10" t="n">
-        <v>832.0539591791926</v>
+        <v>978.5002697497794</v>
       </c>
       <c r="AC10" t="n">
-        <v>752.6438971101959</v>
+        <v>885.1135773386138</v>
       </c>
       <c r="AD10" t="n">
-        <v>608118.0608856821</v>
+        <v>715150.3578005368</v>
       </c>
       <c r="AE10" t="n">
-        <v>832053.9591791925</v>
+        <v>978500.2697497794</v>
       </c>
       <c r="AF10" t="n">
         <v>7.372613119164254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.2125</v>
       </c>
       <c r="AH10" t="n">
-        <v>752643.8971101959</v>
+        <v>885113.5773386138</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>607.18940925727</v>
+        <v>714.2217061721246</v>
       </c>
       <c r="AB11" t="n">
-        <v>830.7833370519807</v>
+        <v>977.2296476225675</v>
       </c>
       <c r="AC11" t="n">
-        <v>751.4945413754757</v>
+        <v>883.9642216038935</v>
       </c>
       <c r="AD11" t="n">
-        <v>607189.4092572699</v>
+        <v>714221.7061721246</v>
       </c>
       <c r="AE11" t="n">
-        <v>830783.3370519807</v>
+        <v>977229.6476225675</v>
       </c>
       <c r="AF11" t="n">
         <v>7.391085920987515e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.15833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>751494.5413754757</v>
+        <v>883964.2216038936</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.1424709722118</v>
+        <v>620.5246875916083</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.1075288114317</v>
+        <v>849.0292531799817</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.5807751845443</v>
+        <v>767.9990928765244</v>
       </c>
       <c r="AD2" t="n">
-        <v>494142.4709722118</v>
+        <v>620524.6875916083</v>
       </c>
       <c r="AE2" t="n">
-        <v>676107.5288114317</v>
+        <v>849029.2531799816</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36987732760414e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.00416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>611580.7751845444</v>
+        <v>767999.0928765244</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>946.5108511242918</v>
+        <v>1107.009519334258</v>
       </c>
       <c r="AB2" t="n">
-        <v>1295.057903619939</v>
+        <v>1514.659262166326</v>
       </c>
       <c r="AC2" t="n">
-        <v>1171.459394923635</v>
+        <v>1370.102308022796</v>
       </c>
       <c r="AD2" t="n">
-        <v>946510.8511242918</v>
+        <v>1107009.519334258</v>
       </c>
       <c r="AE2" t="n">
-        <v>1295057.903619939</v>
+        <v>1514659.262166325</v>
       </c>
       <c r="AF2" t="n">
         <v>6.6283438459563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>1171459.394923635</v>
+        <v>1370102.308022796</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.9206416891215</v>
+        <v>731.6468784570297</v>
       </c>
       <c r="AB3" t="n">
-        <v>833.1520856418248</v>
+        <v>1001.071537087121</v>
       </c>
       <c r="AC3" t="n">
-        <v>753.6372199244645</v>
+        <v>905.5306746002516</v>
       </c>
       <c r="AD3" t="n">
-        <v>608920.6416891215</v>
+        <v>731646.8784570297</v>
       </c>
       <c r="AE3" t="n">
-        <v>833152.0856418248</v>
+        <v>1001071.537087121</v>
       </c>
       <c r="AF3" t="n">
         <v>8.681669717772423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>753637.2199244645</v>
+        <v>905530.6746002516</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>516.37504510306</v>
+        <v>629.6581740104535</v>
       </c>
       <c r="AB4" t="n">
-        <v>706.5271175692051</v>
+        <v>861.5260922392283</v>
       </c>
       <c r="AC4" t="n">
-        <v>639.0971610854368</v>
+        <v>779.3032511553804</v>
       </c>
       <c r="AD4" t="n">
-        <v>516375.04510306</v>
+        <v>629658.1740104535</v>
       </c>
       <c r="AE4" t="n">
-        <v>706527.1175692051</v>
+        <v>861526.0922392283</v>
       </c>
       <c r="AF4" t="n">
         <v>9.47752842910166e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>639097.1610854368</v>
+        <v>779303.2511553804</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>513.1357291260711</v>
+        <v>626.4188580334645</v>
       </c>
       <c r="AB5" t="n">
-        <v>702.094942540954</v>
+        <v>857.0939172109773</v>
       </c>
       <c r="AC5" t="n">
-        <v>635.0879866212853</v>
+        <v>775.2940766912287</v>
       </c>
       <c r="AD5" t="n">
-        <v>513135.7291260711</v>
+        <v>626418.8580334645</v>
       </c>
       <c r="AE5" t="n">
-        <v>702094.942540954</v>
+        <v>857093.9172109773</v>
       </c>
       <c r="AF5" t="n">
         <v>9.49312330914077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.81666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>635087.9866212853</v>
+        <v>775294.0766912288</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1302.619918273353</v>
+        <v>1493.650546418235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1782.302039716541</v>
+        <v>2043.678572820886</v>
       </c>
       <c r="AC2" t="n">
-        <v>1612.201634522617</v>
+        <v>1848.632758151752</v>
       </c>
       <c r="AD2" t="n">
-        <v>1302619.918273353</v>
+        <v>1493650.546418235</v>
       </c>
       <c r="AE2" t="n">
-        <v>1782302.039716541</v>
+        <v>2043678.572820886</v>
       </c>
       <c r="AF2" t="n">
         <v>5.097188525221169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1612201.634522617</v>
+        <v>1848632.758151752</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.7391098917916</v>
+        <v>878.4742157607213</v>
       </c>
       <c r="AB3" t="n">
-        <v>1018.984905724649</v>
+        <v>1201.96717755099</v>
       </c>
       <c r="AC3" t="n">
-        <v>921.7344164765848</v>
+        <v>1087.253117097051</v>
       </c>
       <c r="AD3" t="n">
-        <v>744739.1098917916</v>
+        <v>878474.2157607214</v>
       </c>
       <c r="AE3" t="n">
-        <v>1018984.905724649</v>
+        <v>1201967.17755099</v>
       </c>
       <c r="AF3" t="n">
         <v>7.253726968647016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>921734.4164765847</v>
+        <v>1087253.117097052</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>635.080797893928</v>
+        <v>749.6728534756899</v>
       </c>
       <c r="AB4" t="n">
-        <v>868.9455654658799</v>
+        <v>1025.735471357543</v>
       </c>
       <c r="AC4" t="n">
-        <v>786.0146202705763</v>
+        <v>927.8407175999545</v>
       </c>
       <c r="AD4" t="n">
-        <v>635080.797893928</v>
+        <v>749672.8534756899</v>
       </c>
       <c r="AE4" t="n">
-        <v>868945.5654658799</v>
+        <v>1025735.471357543</v>
       </c>
       <c r="AF4" t="n">
         <v>8.010528933661238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>786014.6202705763</v>
+        <v>927840.7175999545</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>586.0282840656503</v>
+        <v>700.5861742286314</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.8297520018509</v>
+        <v>958.5729112602666</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.3042458459186</v>
+        <v>867.0880579751166</v>
       </c>
       <c r="AD5" t="n">
-        <v>586028.2840656503</v>
+        <v>700586.1742286314</v>
       </c>
       <c r="AE5" t="n">
-        <v>801829.7520018509</v>
+        <v>958572.9112602666</v>
       </c>
       <c r="AF5" t="n">
         <v>8.328987497532666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.15416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>725304.2458459185</v>
+        <v>867088.0579751167</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>545.6273704661174</v>
+        <v>660.1510952103177</v>
       </c>
       <c r="AB6" t="n">
-        <v>746.551439652455</v>
+        <v>903.2478522776225</v>
       </c>
       <c r="AC6" t="n">
-        <v>675.3016180435501</v>
+        <v>817.0431449725684</v>
       </c>
       <c r="AD6" t="n">
-        <v>545627.3704661174</v>
+        <v>660151.0952103178</v>
       </c>
       <c r="AE6" t="n">
-        <v>746551.4396524549</v>
+        <v>903247.8522776226</v>
       </c>
       <c r="AF6" t="n">
         <v>8.574774557729945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.49166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>675301.6180435501</v>
+        <v>817043.1449725684</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>545.7214803986794</v>
+        <v>660.2452051428797</v>
       </c>
       <c r="AB7" t="n">
-        <v>746.6802050140235</v>
+        <v>903.3766176391912</v>
       </c>
       <c r="AC7" t="n">
-        <v>675.4180942197339</v>
+        <v>817.1596211487521</v>
       </c>
       <c r="AD7" t="n">
-        <v>545721.4803986794</v>
+        <v>660245.2051428797</v>
       </c>
       <c r="AE7" t="n">
-        <v>746680.2050140235</v>
+        <v>903376.6176391912</v>
       </c>
       <c r="AF7" t="n">
         <v>8.588660832317363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>675418.094219734</v>
+        <v>817159.621148752</v>
       </c>
     </row>
   </sheetData>
